--- a/Planeacion del Trabajo/Giroplas_PP_REP_v1_BD de Riesgos.xlsx
+++ b/Planeacion del Trabajo/Giroplas_PP_REP_v1_BD de Riesgos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="10380" windowHeight="8070"/>
+    <workbookView xWindow="120" yWindow="96" windowWidth="10380" windowHeight="8076"/>
   </bookViews>
   <sheets>
     <sheet name="identificacion" sheetId="5" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="387">
   <si>
     <t>Versión</t>
   </si>
@@ -1174,6 +1174,9 @@
   </si>
   <si>
     <t>ceracion base de datos de riesgos</t>
+  </si>
+  <si>
+    <t>Giroplas/Planeacion del Trabajo/Giroplas_PP_REP_v1_BD de Riesgos.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1926,39 +1929,39 @@
   <dimension ref="A2:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.42578125" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="54.28515625" customWidth="1"/>
+    <col min="1" max="1" width="57.44140625" customWidth="1"/>
+    <col min="2" max="2" width="43.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="54.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>265</v>
       </c>
       <c r="B2" s="30"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="31"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="31"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>0</v>
       </c>
@@ -1966,7 +1969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>1</v>
       </c>
@@ -1974,7 +1977,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>2</v>
       </c>
@@ -1982,7 +1985,7 @@
         <v>42174</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>3</v>
       </c>
@@ -1990,27 +1993,27 @@
         <v>384</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="19"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="29"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>6</v>
       </c>
@@ -2018,7 +2021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>380</v>
       </c>
@@ -2026,23 +2029,23 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="24"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
     </row>
-    <row r="22" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>8</v>
       </c>
@@ -2050,7 +2053,7 @@
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>0</v>
       </c>
@@ -2064,7 +2067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>1</v>
       </c>
@@ -2078,43 +2081,43 @@
         <v>385</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
     </row>
-    <row r="32" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="32"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="32"/>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="32"/>
       <c r="B35" s="26"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="32"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="33"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>383</v>
       </c>
@@ -2122,7 +2125,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
         <v>381</v>
       </c>
@@ -2130,7 +2133,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
         <v>2</v>
       </c>
@@ -2138,7 +2141,7 @@
         <v>42174</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
         <v>3</v>
       </c>
@@ -2146,7 +2149,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
         <v>4</v>
       </c>
@@ -2154,13 +2157,13 @@
         <v>379</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="22"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
         <v>378</v>
       </c>
@@ -2168,7 +2171,7 @@
       <c r="C47" s="21"/>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>0</v>
       </c>
@@ -2182,19 +2185,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="19"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="19"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
@@ -2225,17 +2228,17 @@
       <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="105.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="105.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="2.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="2.5546875" style="5" customWidth="1"/>
     <col min="6" max="7" width="0" style="5" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -2244,7 +2247,7 @@
       <c r="F1"/>
       <c r="G1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -2253,7 +2256,7 @@
       <c r="F2"/>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3" s="8"/>
       <c r="C3"/>
@@ -2262,7 +2265,7 @@
       <c r="F3"/>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -2271,7 +2274,7 @@
       <c r="F4"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -2280,7 +2283,7 @@
       <c r="F5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -2289,7 +2292,7 @@
       <c r="F6"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -2300,7 +2303,7 @@
       <c r="F7"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
@@ -2309,7 +2312,7 @@
       <c r="F8"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>15</v>
       </c>
@@ -2324,7 +2327,7 @@
       <c r="F9"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
@@ -2335,7 +2338,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>50</v>
       </c>
@@ -2346,7 +2349,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>51</v>
       </c>
@@ -2360,7 +2363,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>52</v>
       </c>
@@ -2374,7 +2377,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>53</v>
       </c>
@@ -2385,7 +2388,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>54</v>
       </c>
@@ -2396,7 +2399,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>55</v>
       </c>
@@ -2407,7 +2410,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>56</v>
       </c>
@@ -2418,7 +2421,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>58</v>
       </c>
@@ -2429,7 +2432,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>57</v>
       </c>
@@ -2440,7 +2443,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>59</v>
       </c>
@@ -2451,7 +2454,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>60</v>
       </c>
@@ -2462,7 +2465,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>61</v>
       </c>
@@ -2473,7 +2476,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>62</v>
       </c>
@@ -2484,7 +2487,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>63</v>
       </c>
@@ -2495,7 +2498,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>64</v>
       </c>
@@ -2506,7 +2509,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>65</v>
       </c>
@@ -2517,7 +2520,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>66</v>
       </c>
@@ -2528,7 +2531,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>67</v>
       </c>
@@ -2539,7 +2542,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>68</v>
       </c>
@@ -2550,7 +2553,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>69</v>
       </c>
@@ -2561,7 +2564,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>70</v>
       </c>
@@ -2572,7 +2575,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>71</v>
       </c>
@@ -2583,7 +2586,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>72</v>
       </c>
@@ -2594,7 +2597,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>73</v>
       </c>
@@ -2605,7 +2608,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>74</v>
       </c>
@@ -2616,7 +2619,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>75</v>
       </c>
@@ -2627,7 +2630,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>76</v>
       </c>
@@ -2638,7 +2641,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>77</v>
       </c>
@@ -2649,7 +2652,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>78</v>
       </c>
@@ -2660,7 +2663,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>79</v>
       </c>
@@ -2671,7 +2674,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>80</v>
       </c>
@@ -2682,7 +2685,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>81</v>
       </c>
@@ -2693,7 +2696,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>82</v>
       </c>
@@ -2704,7 +2707,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>83</v>
       </c>
@@ -2715,7 +2718,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>84</v>
       </c>
@@ -2726,7 +2729,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>85</v>
       </c>
@@ -2737,7 +2740,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>86</v>
       </c>
@@ -2748,7 +2751,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>87</v>
       </c>
@@ -2759,7 +2762,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>88</v>
       </c>
@@ -2770,7 +2773,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>89</v>
       </c>
@@ -2781,7 +2784,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>90</v>
       </c>
@@ -2792,7 +2795,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>91</v>
       </c>
@@ -2803,7 +2806,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>92</v>
       </c>
@@ -2814,7 +2817,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>93</v>
       </c>
@@ -2825,7 +2828,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>94</v>
       </c>
@@ -2836,7 +2839,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>95</v>
       </c>
@@ -2847,7 +2850,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>96</v>
       </c>
@@ -2858,7 +2861,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>97</v>
       </c>
@@ -2869,7 +2872,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>98</v>
       </c>
@@ -2880,7 +2883,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>99</v>
       </c>
@@ -2891,7 +2894,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>100</v>
       </c>
@@ -2902,7 +2905,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>101</v>
       </c>
@@ -2913,7 +2916,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>102</v>
       </c>
@@ -2924,7 +2927,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>103</v>
       </c>
@@ -2935,7 +2938,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>104</v>
       </c>
@@ -2946,7 +2949,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>105</v>
       </c>
@@ -2957,7 +2960,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>106</v>
       </c>
@@ -2968,7 +2971,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>107</v>
       </c>
@@ -2979,7 +2982,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>108</v>
       </c>
@@ -2990,7 +2993,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>109</v>
       </c>
@@ -3001,7 +3004,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>110</v>
       </c>
@@ -3012,7 +3015,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>111</v>
       </c>
@@ -3023,7 +3026,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>178</v>
       </c>
@@ -3034,7 +3037,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>179</v>
       </c>
@@ -3045,7 +3048,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>180</v>
       </c>
@@ -3056,7 +3059,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>181</v>
       </c>
@@ -3067,7 +3070,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>182</v>
       </c>
@@ -3078,7 +3081,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>183</v>
       </c>
@@ -3089,7 +3092,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>184</v>
       </c>
@@ -3100,7 +3103,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>185</v>
       </c>
@@ -3111,7 +3114,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>186</v>
       </c>
@@ -3122,7 +3125,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>187</v>
       </c>
@@ -3133,7 +3136,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>188</v>
       </c>
@@ -3144,7 +3147,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>189</v>
       </c>
@@ -3155,7 +3158,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>190</v>
       </c>
@@ -3166,7 +3169,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>191</v>
       </c>
@@ -3177,7 +3180,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>192</v>
       </c>
@@ -3188,7 +3191,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>193</v>
       </c>
@@ -3199,7 +3202,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>194</v>
       </c>
@@ -3210,7 +3213,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>195</v>
       </c>
@@ -3221,7 +3224,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>196</v>
       </c>
@@ -3232,7 +3235,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>197</v>
       </c>
@@ -3243,7 +3246,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>198</v>
       </c>
@@ -3254,7 +3257,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>199</v>
       </c>
@@ -3265,7 +3268,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>200</v>
       </c>
@@ -3276,7 +3279,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
         <v>267</v>
       </c>
@@ -3287,7 +3290,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
         <v>270</v>
       </c>
@@ -3298,7 +3301,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
         <v>272</v>
       </c>
@@ -3309,7 +3312,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
         <v>274</v>
       </c>
@@ -3320,7 +3323,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
         <v>276</v>
       </c>
@@ -3331,7 +3334,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
         <v>278</v>
       </c>
@@ -3342,7 +3345,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
         <v>279</v>
       </c>
@@ -3353,7 +3356,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
         <v>281</v>
       </c>
@@ -3364,7 +3367,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
         <v>283</v>
       </c>
@@ -3375,7 +3378,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>284</v>
       </c>
@@ -3386,7 +3389,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>286</v>
       </c>
@@ -3397,7 +3400,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
         <v>288</v>
       </c>
@@ -3408,7 +3411,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
         <v>290</v>
       </c>
@@ -3419,7 +3422,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
         <v>292</v>
       </c>
@@ -3430,7 +3433,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
         <v>294</v>
       </c>
@@ -3441,7 +3444,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
         <v>296</v>
       </c>
@@ -3452,7 +3455,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
         <v>298</v>
       </c>
@@ -3463,7 +3466,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
         <v>300</v>
       </c>
@@ -3474,7 +3477,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
         <v>302</v>
       </c>
@@ -3485,7 +3488,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
         <v>304</v>
       </c>
@@ -3496,7 +3499,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
         <v>306</v>
       </c>
@@ -3507,7 +3510,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
         <v>308</v>
       </c>
@@ -3518,7 +3521,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
         <v>323</v>
       </c>
@@ -3529,7 +3532,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
         <v>324</v>
       </c>
@@ -3540,7 +3543,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
         <v>325</v>
       </c>
@@ -3551,7 +3554,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
         <v>326</v>
       </c>
@@ -3562,7 +3565,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
         <v>327</v>
       </c>
@@ -3573,7 +3576,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
         <v>328</v>
       </c>
@@ -3584,7 +3587,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
         <v>329</v>
       </c>
@@ -3595,7 +3598,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
         <v>330</v>
       </c>
@@ -3606,7 +3609,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
         <v>331</v>
       </c>
@@ -3617,7 +3620,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
         <v>332</v>
       </c>
@@ -3628,7 +3631,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="s">
         <v>343</v>
       </c>
@@ -3639,7 +3642,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
         <v>344</v>
       </c>
@@ -3650,7 +3653,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
         <v>345</v>
       </c>
@@ -3661,7 +3664,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
         <v>346</v>
       </c>
@@ -3672,7 +3675,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
         <v>347</v>
       </c>
@@ -3683,7 +3686,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
         <v>348</v>
       </c>
@@ -3694,7 +3697,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
         <v>349</v>
       </c>
@@ -3705,7 +3708,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
         <v>350</v>
       </c>
@@ -3716,7 +3719,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
         <v>351</v>
       </c>
@@ -3727,7 +3730,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
         <v>352</v>
       </c>
@@ -3738,7 +3741,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
         <v>353</v>
       </c>
@@ -3749,7 +3752,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
         <v>367</v>
       </c>
@@ -3760,7 +3763,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
         <v>368</v>
       </c>
@@ -3771,7 +3774,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
         <v>369</v>
       </c>
@@ -3782,7 +3785,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
         <v>370</v>
       </c>
@@ -3793,7 +3796,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
         <v>371</v>
       </c>
@@ -3804,7 +3807,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="14" t="s">
         <v>372</v>
       </c>
@@ -3815,7 +3818,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
         <v>373</v>
       </c>
@@ -3826,7 +3829,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
         <v>374</v>
       </c>
@@ -3837,7 +3840,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
         <v>375</v>
       </c>
@@ -3848,7 +3851,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
         <v>376</v>
       </c>
@@ -3876,17 +3879,17 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="117.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="117.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="2.5546875" style="5" customWidth="1"/>
     <col min="6" max="7" width="0" style="5" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -3895,7 +3898,7 @@
       <c r="F1"/>
       <c r="G1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -3904,7 +3907,7 @@
       <c r="F2"/>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3" s="8"/>
       <c r="C3"/>
@@ -3913,7 +3916,7 @@
       <c r="F3"/>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -3922,7 +3925,7 @@
       <c r="F4"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -3931,7 +3934,7 @@
       <c r="F5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -3940,7 +3943,7 @@
       <c r="F6"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>201</v>
       </c>
@@ -3951,7 +3954,7 @@
       <c r="F7"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
@@ -3960,7 +3963,7 @@
       <c r="F8"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>15</v>
       </c>
@@ -3975,7 +3978,7 @@
       <c r="F9"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>202</v>
       </c>
@@ -3986,7 +3989,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>203</v>
       </c>
@@ -3997,7 +4000,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>204</v>
       </c>
@@ -4011,7 +4014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>205</v>
       </c>
@@ -4025,7 +4028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>206</v>
       </c>
@@ -4036,7 +4039,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>207</v>
       </c>
@@ -4047,7 +4050,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>208</v>
       </c>
@@ -4058,7 +4061,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>209</v>
       </c>
@@ -4069,7 +4072,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>210</v>
       </c>
@@ -4080,7 +4083,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>211</v>
       </c>
@@ -4091,7 +4094,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>212</v>
       </c>
@@ -4102,7 +4105,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>213</v>
       </c>
@@ -4113,7 +4116,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>214</v>
       </c>
@@ -4124,7 +4127,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>215</v>
       </c>
@@ -4135,7 +4138,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>216</v>
       </c>
@@ -4146,7 +4149,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>217</v>
       </c>
@@ -4157,7 +4160,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>218</v>
       </c>
@@ -4168,7 +4171,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>219</v>
       </c>
@@ -4179,7 +4182,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>220</v>
       </c>
@@ -4190,7 +4193,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>221</v>
       </c>
@@ -4201,7 +4204,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>222</v>
       </c>
@@ -4212,7 +4215,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>223</v>
       </c>
@@ -4223,7 +4226,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>224</v>
       </c>
@@ -4234,7 +4237,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>225</v>
       </c>
@@ -4245,7 +4248,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>226</v>
       </c>
@@ -4256,7 +4259,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>227</v>
       </c>
@@ -4267,7 +4270,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>228</v>
       </c>
@@ -4278,7 +4281,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>229</v>
       </c>
@@ -4289,7 +4292,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>230</v>
       </c>
@@ -4300,7 +4303,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>231</v>
       </c>
@@ -4311,154 +4314,154 @@
         <v>243</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="C40" s="7"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C42" s="7"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C43" s="7"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="7"/>
     </row>
-    <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
     </row>
-    <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
     </row>
-    <row r="67" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
     </row>
   </sheetData>
